--- a/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P19C09-Habitat-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.237161309420605</v>
+        <v>-3.364467681183031</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-2.046578938868203</v>
+        <v>-1.9804807032828</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-4.302000415621862</v>
+        <v>-4.451592130663854</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-4.098010441794971</v>
+        <v>-4.067540389878556</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-3.217130585941656</v>
+        <v>-3.301055764663407</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.449009745617136</v>
+        <v>-2.65596876630366</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.4541361148756266</v>
+        <v>0.4167394317145232</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.465393401538956</v>
+        <v>2.561144503977275</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-0.3508268724724494</v>
+        <v>-0.1418809386230901</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2749162840357449</v>
+        <v>0.09899510862875975</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-0.5531725061479167</v>
+        <v>-0.4259287285681676</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.547825118084953</v>
+        <v>0.5624340835972772</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7697890843134848</v>
+        <v>-0.7921413288601667</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5158849836015083</v>
+        <v>-0.4901996295452402</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.7897764928184803</v>
+        <v>-0.8080308271777114</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.7563585387998878</v>
+        <v>-0.7517117055360764</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.7072660239198358</v>
+        <v>-0.721709065182346</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.555835251242614</v>
+        <v>-0.5631711207275004</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3536675855543627</v>
+        <v>0.3189308868518679</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.196314048322216</v>
+        <v>1.289283405630239</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.07034052503694752</v>
+        <v>0.008095569123981195</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1633969136734591</v>
+        <v>0.1099326208213141</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.1508790677171061</v>
+        <v>-0.1199407342094445</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2070720676358021</v>
+        <v>0.2120713053281823</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.550229127367965</v>
+        <v>-2.637028754631661</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.387847379733508</v>
+        <v>-1.438720400413045</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.203424872503313</v>
+        <v>-2.084728611745077</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.015720566432519</v>
+        <v>-2.030264572060577</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.895812911057637</v>
+        <v>-1.887054687538026</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.204822869026556</v>
+        <v>-1.166788501337732</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2571871046114245</v>
+        <v>0.3875619872774179</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.799690083807038</v>
+        <v>1.904984014243237</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.274522817828446</v>
+        <v>1.447617868570852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.537065077743705</v>
+        <v>1.523356634668973</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3817033032926552</v>
+        <v>0.4931044971028832</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.195806904257534</v>
+        <v>1.215344953990913</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.7358918568888683</v>
+        <v>-0.7597605868768394</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.4533629218085639</v>
+        <v>-0.4260646426207875</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.5348165844665064</v>
+        <v>-0.5126186423891564</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4675179583907924</v>
+        <v>-0.4793959772730583</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.525073470855138</v>
+        <v>-0.5241581961487872</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3383976798872496</v>
+        <v>-0.3269396007413072</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.2265091753281864</v>
+        <v>0.31203099178084</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.212538204719966</v>
+        <v>1.169662846583323</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.5563075374333608</v>
+        <v>0.6156184627768112</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.648879555416789</v>
+        <v>0.6335512693788968</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1798124136467193</v>
+        <v>0.2169808008290358</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.5251405022047826</v>
+        <v>0.5607385763874438</v>
       </c>
     </row>
     <row r="16">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.998405915222938</v>
+        <v>-2.920292159736186</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.836172194336807</v>
+        <v>-2.113449947558583</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.870303695732896</v>
+        <v>-2.01786961945655</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.176664129131518</v>
+        <v>-3.133222355708301</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.93006400868393</v>
+        <v>-1.87756829737071</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.825694892055949</v>
+        <v>-1.84609746421984</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4811771231103064</v>
+        <v>0.4626981222207594</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.408102764408978</v>
+        <v>2.217391429631542</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.870977862126203</v>
+        <v>1.743616465839985</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1454099447607306</v>
+        <v>0.09193357275149568</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.6654455990403069</v>
+        <v>0.7137515256257984</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8080838581553498</v>
+        <v>0.7106124974979227</v>
       </c>
     </row>
     <row r="19">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.790827567721558</v>
+        <v>-0.8003466019858104</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.5169354363229548</v>
+        <v>-0.5487611653140112</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.5579791507416944</v>
+        <v>-0.5677520438503671</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.8297650501312425</v>
+        <v>-0.8411901602431364</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5923554707592739</v>
+        <v>-0.5582953130014741</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.5777801549717657</v>
+        <v>-0.561773330615331</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.4559686647405355</v>
+        <v>0.4536880163692899</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.524564069837345</v>
+        <v>1.487873028670864</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.051170703861763</v>
+        <v>1.148113773661098</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.167023767325283</v>
+        <v>0.23136276797749</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3705349533013399</v>
+        <v>0.3962657876195607</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.4692569197915172</v>
+        <v>0.4113382318063615</v>
       </c>
     </row>
     <row r="22">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.063357867415682</v>
+        <v>-2.139207162563562</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.386845698109387</v>
+        <v>-1.615637142131802</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8442262650794014</v>
+        <v>-0.7630073567216241</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.9553251127920147</v>
+        <v>-1.023335261463939</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.9847540691638783</v>
+        <v>-0.9397079001940379</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.7475069468176678</v>
+        <v>-0.7478139620332035</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.321699668576786</v>
+        <v>1.225427022691223</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.944696453674653</v>
+        <v>1.915745097332817</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2.758168412496816</v>
+        <v>2.585331949150085</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.600369521917123</v>
+        <v>2.581306334263402</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.479587546573251</v>
+        <v>1.459552305078062</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>1.711997777990211</v>
+        <v>1.644018654786908</v>
       </c>
     </row>
     <row r="25">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5822928690895627</v>
+        <v>-0.6263860142360617</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.4035160131140453</v>
+        <v>-0.4746715498925163</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.2422148672189569</v>
+        <v>-0.2423018184960733</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2943863980058384</v>
+        <v>-0.3210637364514826</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2989139654242087</v>
+        <v>-0.2950462663535789</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2236135938751845</v>
+        <v>-0.2212921576528479</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7615993669047862</v>
+        <v>0.7329804305476193</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.035673263819514</v>
+        <v>1.087231404311866</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.584177610717195</v>
+        <v>1.425092652718101</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.382538389999028</v>
+        <v>1.421475516039367</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7154667549894557</v>
+        <v>0.6749122975507506</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8241366034214</v>
+        <v>0.8022380895847289</v>
       </c>
     </row>
     <row r="28">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.795296651592124</v>
+        <v>-1.836996317624155</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.6603390792382192</v>
+        <v>-0.6416008488794585</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.320923619117464</v>
+        <v>-1.205589429702413</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.461834868095896</v>
+        <v>-1.337233048016684</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.277647933589086</v>
+        <v>-1.26095611114391</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-0.7208020716653333</v>
+        <v>-0.7893457282470824</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-0.1804111760016158</v>
+        <v>-0.1806884462166459</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.17281788815643</v>
+        <v>1.150500435442444</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.572573318605114</v>
+        <v>0.6612588107104418</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4310830083419754</v>
+        <v>0.5493547264536748</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.07623545361004452</v>
+        <v>0.00388283509273588</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.5591762130592201</v>
+        <v>0.5094279176761278</v>
       </c>
     </row>
     <row r="31">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5710143387873463</v>
+        <v>-0.5765913178918565</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.2163273399181227</v>
+        <v>-0.2043851311927093</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.3668562575518067</v>
+        <v>-0.3359836605698645</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.3850838265228698</v>
+        <v>-0.3801344172100516</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.3921049889152538</v>
+        <v>-0.3827190968505559</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2278974433919812</v>
+        <v>-0.2448181451480345</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.05587185342359242</v>
+        <v>-0.07011081726842758</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.5627085443691398</v>
+        <v>0.5194663129279942</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2191597637055548</v>
+        <v>0.247476023117888</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.1645226853789836</v>
+        <v>0.2099801294657819</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.02218162621164547</v>
+        <v>0.002405770384741044</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.2084077993527829</v>
+        <v>0.1943092303730838</v>
       </c>
     </row>
     <row r="34">
